--- a/11206-김성우.xlsx
+++ b/11206-김성우.xlsx
@@ -9,23 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="제1작업" sheetId="1" r:id="rId1"/>
+    <sheet name="제1작업" sheetId="3" r:id="rId1"/>
     <sheet name="제2작업" sheetId="2" r:id="rId2"/>
-    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제3작업" sheetId="1" r:id="rId3"/>
     <sheet name="제4작업" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
-    <definedName name="작업일">제1작업!$F$5:$F$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,6 +63,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>파격인원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>비용
 (단위:원)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -82,10 +85,25 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>홈크리닝</t>
+  </si>
+  <si>
+    <t>홈크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입주청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>고인돌</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>김나래</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>이철수</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -94,7 +112,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>박다재</t>
+    <t>박달재</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -106,36 +124,37 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>김나래</t>
+    <t>사무실크리닝</t>
+  </si>
+  <si>
+    <t>사무실크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수크리닝</t>
+  </si>
+  <si>
+    <t>특수크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실크리닝</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홈크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홈크리닝</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>특수크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>사무실크리닝</t>
-  </si>
-  <si>
-    <t>사무실크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수크리닝</t>
-  </si>
-  <si>
-    <t>특수크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무실크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>입주청소</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -155,6 +174,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>줄눈시곡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>건물외벽청소</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -163,6 +186,41 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>H01-1</t>
+  </si>
+  <si>
+    <t>H01-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F01-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S01-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F02-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H02-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H03-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F03-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>홈크리닝 비용(단위:원) 합계</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -175,100 +233,41 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>관리번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>파견인원</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>H01-1</t>
-  </si>
-  <si>
-    <t>H01-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F01-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S01-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F02-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>H02-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>H03-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S02-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F03-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>줄눈시공</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무실크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>개수 : 고객명</t>
+  </si>
+  <si>
+    <t>2022-04-01 - 2022-04-10</t>
+  </si>
+  <si>
+    <t>2022-04-11 - 2022-04-20</t>
+  </si>
+  <si>
+    <t>2022-04-21 - 2022-04-30</t>
+  </si>
+  <si>
+    <t>평균 : 비용(단위:원)</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
   <si>
     <t>홈크리닝</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>홈크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>파견인원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>총합계</t>
-  </si>
-  <si>
-    <t>2022-04-01 - 2022-04-10</t>
-  </si>
-  <si>
-    <t>2022-04-11 - 2022-04-20</t>
-  </si>
-  <si>
-    <t>2022-04-21 - 2022-04-30</t>
-  </si>
-  <si>
-    <t>사무실크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;=400000</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=400000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수 : 고객명</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>평균 : 비용(단위:원)</t>
   </si>
 </sst>
 </file>
@@ -277,7 +276,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="General&quot;명&quot;"/>
+    <numFmt numFmtId="176" formatCode="General&quot;명&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -325,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -348,6 +347,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
@@ -355,22 +552,39 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
       </diagonal>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -392,7 +606,22 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -408,9 +637,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -421,9 +648,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -432,9 +657,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -481,21 +704,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,70 +744,124 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,129 +869,7 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <b val="0"/>
@@ -890,33 +1063,95 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -959,7 +1194,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -994,7 +1229,9 @@
           <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1003,7 +1240,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1028,7 +1265,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>비용(단위:원)</c:v>
           </c:tx>
@@ -1058,7 +1295,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-FC8D-47FF-888C-BFDEE6351C0F}"/>
+                  <c16:uniqueId val="{00000005-42A4-4156-BFCA-FB5C39B8E45C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1135,7 +1372,7 @@
                   <c:v>에어컨청소</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>줄눈시공</c:v>
+                  <c:v>줄눈시곡</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>바닥왁스작업</c:v>
@@ -1172,7 +1409,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC8D-47FF-888C-BFDEE6351C0F}"/>
+              <c16:uniqueId val="{00000001-42A4-4156-BFCA-FB5C39B8E45C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1185,22 +1422,22 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="85"/>
-        <c:axId val="1987446256"/>
-        <c:axId val="1987447920"/>
+        <c:axId val="1114516223"/>
+        <c:axId val="1114518719"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>제1작업!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>파견인원</c:v>
+                  <c:v>파격인원</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1247,7 +1484,7 @@
                   <c:v>에어컨청소</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>줄눈시공</c:v>
+                  <c:v>줄눈시곡</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>바닥왁스작업</c:v>
@@ -1285,7 +1522,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC8D-47FF-888C-BFDEE6351C0F}"/>
+              <c16:uniqueId val="{00000000-42A4-4156-BFCA-FB5C39B8E45C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1299,11 +1536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1979568016"/>
-        <c:axId val="1979573008"/>
+        <c:axId val="1319779743"/>
+        <c:axId val="1319767263"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1987446256"/>
+        <c:axId val="1114516223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1554,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1343,7 +1580,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1987447920"/>
+        <c:crossAx val="1114518719"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1351,7 +1588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1987447920"/>
+        <c:axId val="1114518719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,7 +1598,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
               <a:round/>
@@ -1377,7 +1614,7 @@
           <a:noFill/>
           <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
@@ -1402,18 +1639,18 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1987446256"/>
+        <c:crossAx val="1114516223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1979573008"/>
+        <c:axId val="1319767263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General&quot;명&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="General&quot;명&quot;" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1421,7 +1658,7 @@
           <a:noFill/>
           <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
@@ -1446,13 +1683,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1979568016"/>
+        <c:crossAx val="1319779743"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1979568016"/>
+        <c:axId val="1319779743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1462,7 +1699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1979573008"/>
+        <c:crossAx val="1319767263"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2094,7 +2331,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2106,15 +2343,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>40532</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>316149</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2123,8 +2360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="164771" y="91109"/>
-          <a:ext cx="4234704" cy="704021"/>
+          <a:off x="142875" y="95250"/>
+          <a:ext cx="4533900" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="plus">
           <a:avLst/>
@@ -2132,6 +2369,13 @@
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
         </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2192,19 +2436,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>662608</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>231913</xdr:rowOff>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2224,8 +2468,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5085521" y="91109"/>
-          <a:ext cx="2244587" cy="770282"/>
+          <a:off x="5191125" y="104774"/>
+          <a:ext cx="2609850" cy="762001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2278,12 +2522,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.72567</cdr:x>
-      <cdr:y>0.22336</cdr:y>
+      <cdr:x>0.71728</cdr:x>
+      <cdr:y>0.23107</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.8297</cdr:x>
-      <cdr:y>0.30937</cdr:y>
+      <cdr:x>0.83138</cdr:x>
+      <cdr:y>0.32478</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2292,13 +2536,13 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6753381" y="1358484"/>
-          <a:ext cx="968115" cy="523094"/>
+          <a:off x="6675308" y="1405328"/>
+          <a:ext cx="1061803" cy="569939"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 53361"/>
-            <a:gd name="adj2" fmla="val 78918"/>
+            <a:gd name="adj1" fmla="val 54167"/>
+            <a:gd name="adj2" fmla="val 67979"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2332,13 +2576,17 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>최다 직업</a:t>
+            <a:t>최다 작업</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -2348,7 +2596,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45049.345209375002" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45054.342579976852" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:H12" sheet="제1작업"/>
   </cacheSource>
@@ -2357,16 +2605,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="고객명" numFmtId="0">
-      <sharedItems count="8">
-        <s v="임동진"/>
-        <s v="고인돌"/>
-        <s v="김나래"/>
-        <s v="이철수"/>
-        <s v="나영희"/>
-        <s v="박다재"/>
-        <s v="한우주"/>
-        <s v="최고봉"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="구분" numFmtId="0">
       <sharedItems count="3">
@@ -2399,20 +2638,11 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="파견인원" numFmtId="177">
+    <cacheField name="파격인원" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="비용_x000a_(단위:원)" numFmtId="41">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="150000" maxValue="1250000" count="8">
-        <n v="450000"/>
-        <n v="520000"/>
-        <n v="1030000"/>
-        <n v="330000"/>
-        <n v="150000"/>
-        <n v="240000"/>
-        <n v="1250000"/>
-        <n v="400000"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="150000" maxValue="1250000"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2427,97 +2657,85 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
   <r>
     <s v="H01-1"/>
-    <x v="0"/>
+    <s v="임동진"/>
     <x v="0"/>
     <s v="입주청소"/>
     <x v="0"/>
     <n v="3"/>
-    <x v="0"/>
+    <n v="450000"/>
   </r>
   <r>
     <s v="F01-2"/>
-    <x v="1"/>
+    <s v="고인돌"/>
     <x v="1"/>
     <s v="인테리어청소"/>
     <x v="1"/>
     <n v="2"/>
-    <x v="1"/>
+    <n v="520000"/>
   </r>
   <r>
     <s v="S01-1"/>
-    <x v="2"/>
+    <s v="김나래"/>
     <x v="2"/>
     <s v="전산실청소"/>
     <x v="2"/>
     <n v="5"/>
-    <x v="2"/>
+    <n v="1030000"/>
   </r>
   <r>
     <s v="F02-1"/>
-    <x v="3"/>
+    <s v="이철수"/>
     <x v="1"/>
     <s v="계단청소"/>
     <x v="3"/>
     <n v="4"/>
-    <x v="3"/>
+    <n v="330000"/>
   </r>
   <r>
     <s v="H02-2"/>
-    <x v="4"/>
+    <s v="나영희"/>
     <x v="0"/>
     <s v="에어컨청소"/>
     <x v="4"/>
     <n v="1"/>
-    <x v="4"/>
+    <n v="150000"/>
   </r>
   <r>
     <s v="H03-1"/>
-    <x v="5"/>
+    <s v="박달재"/>
     <x v="0"/>
-    <s v="줄눈시공"/>
+    <s v="줄눈시곡"/>
     <x v="5"/>
     <n v="3"/>
-    <x v="5"/>
+    <n v="240000"/>
   </r>
   <r>
     <s v="S02-2"/>
-    <x v="6"/>
+    <s v="한우주"/>
     <x v="2"/>
     <s v="건물외벽청소"/>
     <x v="2"/>
     <n v="4"/>
-    <x v="6"/>
+    <n v="1250000"/>
   </r>
   <r>
     <s v="F03-1"/>
-    <x v="7"/>
+    <s v="최고봉"/>
     <x v="1"/>
     <s v="바닥왁스작업"/>
     <x v="6"/>
     <n v="2"/>
-    <x v="7"/>
+    <n v="400000"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="작업일" colHeaderCaption="구분">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="작업일" colHeaderCaption="구분">
   <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0" countASubtotal="1">
-      <items count="9">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item t="countA"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0" sortType="descending">
       <items count="4">
         <item x="0"/>
@@ -2537,20 +2755,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="177" showAll="0"/>
-    <pivotField dataField="1" numFmtId="41" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField dataField="1" numFmtId="41" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="4"/>
@@ -2597,14 +2803,160 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="개수 : 고객명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 비용(단위:원)" fld="6" subtotal="average" baseField="4" baseItem="1"/>
+    <dataField name="개수 : 고객명" fld="1" subtotal="count" baseField="4" baseItem="0"/>
+    <dataField name="평균 : 비용(단위:원)" fld="6" subtotal="average" baseField="4" baseItem="0"/>
   </dataFields>
-  <formats count="9">
-    <format dxfId="37">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+  <formats count="23">
+    <format dxfId="29">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="28">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -2619,7 +2971,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -2634,7 +2986,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -2649,7 +3001,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -2664,7 +3016,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -2679,7 +3031,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -2694,7 +3046,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -2709,7 +3061,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -2735,13 +3087,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E21" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="44" tableBorderDxfId="45" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E21" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="5">
   <autoFilter ref="B18:E21"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="관리번호" dataDxfId="42"/>
-    <tableColumn id="2" name="고객명" dataDxfId="41"/>
-    <tableColumn id="3" name="작업" dataDxfId="40"/>
-    <tableColumn id="4" name="작업일" dataDxfId="39"/>
+    <tableColumn id="1" name="관리번호" dataDxfId="4"/>
+    <tableColumn id="2" name="고객명" dataDxfId="3"/>
+    <tableColumn id="3" name="작업" dataDxfId="2"/>
+    <tableColumn id="4" name="작업일" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3010,10 +3362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J18"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3021,9 +3373,9 @@
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -3031,318 +3383,314 @@
   <sheetData>
     <row r="1" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="3" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="23" t="s">
         <v>9</v>
       </c>
+      <c r="J4" s="25" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8">
         <v>44662</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="27">
         <v>3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="19">
         <v>450000</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="7" t="str">
         <f>IF(RIGHT(B5,1)="1","서울","경기/인천")</f>
         <v>서울</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="B6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="12">
         <v>44678</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="28">
         <v>2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="20">
         <v>520000</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="11" t="str">
         <f t="shared" ref="I6:I12" si="0">IF(RIGHT(B6,1)="1","서울","경기/인천")</f>
         <v>경기/인천</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="B7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="12">
         <v>44674</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="28">
         <v>5</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="20">
         <v>1030000</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>서울</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="B8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="12">
         <v>44665</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="28">
         <v>4</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="20">
         <v>330000</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>서울</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12">
         <v>44670</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="28">
         <v>1</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="20">
         <v>150000</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>경기/인천</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="B10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="12">
         <v>44660</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="28">
         <v>3</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="20">
         <v>240000</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>서울</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="12">
         <v>44674</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="28">
         <v>4</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="20">
         <v>1250000</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>경기/인천</v>
       </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="C12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="16">
         <v>44680</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="29">
         <v>2</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="21">
         <v>400000</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>서울</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="5" t="e">
-        <f>DSUM(B4:H12,D4:D5,H5:H12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="6">
-        <f>MIN(작업일)</f>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="40">
+        <f>MIN(F5:F12)</f>
         <v>44660</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="5" t="str">
+    <row r="14" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="15" t="str">
         <f>COUNTIF(D5:D12,"사무실크리닝")&amp;"개"</f>
         <v>3개</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="F14" s="31"/>
+      <c r="G14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="17">
         <f>VLOOKUP(H14,B5:H12,6,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:I13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$H5&gt;=1000000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3352,320 +3700,327 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="24" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44662</v>
+      </c>
+      <c r="G3" s="27">
+        <v>3</v>
+      </c>
+      <c r="H3" s="19">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="12">
+        <v>44678</v>
+      </c>
+      <c r="G4" s="28">
+        <v>2</v>
+      </c>
+      <c r="H4" s="20">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44674</v>
+      </c>
+      <c r="G5" s="28">
+        <v>5</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1030000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="12">
+        <v>44665</v>
+      </c>
+      <c r="G6" s="28">
+        <v>4</v>
+      </c>
+      <c r="H6" s="20">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="12">
+        <v>44670</v>
+      </c>
+      <c r="G7" s="28">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="12">
+        <v>44660</v>
+      </c>
+      <c r="G8" s="28">
+        <v>3</v>
+      </c>
+      <c r="H8" s="20">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="12">
+        <v>44674</v>
+      </c>
+      <c r="G9" s="28">
+        <v>4</v>
+      </c>
+      <c r="H9" s="20">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="6">
-        <v>44662</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F10" s="16">
+        <v>44680</v>
+      </c>
+      <c r="G10" s="29">
+        <v>2</v>
+      </c>
+      <c r="H10" s="21">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="B14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="6">
-        <v>44678</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>520000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="6">
-        <v>44674</v>
-      </c>
-      <c r="G5" s="8">
-        <v>5</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1030000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="6">
-        <v>44665</v>
-      </c>
-      <c r="G6" s="8">
-        <v>4</v>
-      </c>
-      <c r="H6" s="7">
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="6">
-        <v>44670</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="6">
-        <v>44660</v>
-      </c>
-      <c r="G8" s="8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="7">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="6">
-        <v>44674</v>
-      </c>
-      <c r="G9" s="8">
-        <v>4</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="6">
-        <v>44680</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
+      <c r="C14" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="45">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="46">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="16">
-        <v>44662</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="16">
-        <v>44678</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="E21" s="52">
         <v>44680</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="30" priority="1">
+      <formula>$H3&gt;=1000000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3675,371 +4030,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AI19"/>
+  <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
-    <col min="14" max="21" width="11.875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.875" style="1" customWidth="1"/>
-    <col min="31" max="34" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.875" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="35"/>
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="I2"/>
       <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-    </row>
-    <row r="3" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26" t="s">
+    </row>
+    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="35"/>
+      <c r="C3" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="36"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-    </row>
-    <row r="4" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+    </row>
+    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>60</v>
+      <c r="C4" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-    </row>
-    <row r="5" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="13">
+    </row>
+    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="34">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="34">
         <v>240000</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>59</v>
+      <c r="E5" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-    </row>
-    <row r="6" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="13">
+    </row>
+    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="34">
         <v>2</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="34">
         <v>300000</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="E6" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="34">
         <v>1</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="34">
         <v>330000</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-    </row>
-    <row r="7" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="13">
+    </row>
+    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="34">
         <v>2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="34">
         <v>1140000</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="34">
         <v>2</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="34">
         <v>460000</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-    </row>
-    <row r="8" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="13">
+    </row>
+    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="34">
         <v>3</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="34">
         <v>280000</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="34">
         <v>2</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="34">
         <v>1140000</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="34">
         <v>3</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="34">
         <v>416666.66666666669</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-    </row>
-    <row r="9" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -4049,33 +4216,8 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-    </row>
-    <row r="10" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -4085,12 +4227,8 @@
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -4100,12 +4238,8 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -4115,27 +4249,23 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="2:35" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -4163,5 +4293,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/11206-김성우.xlsx
+++ b/11206-김성우.xlsx
@@ -21,9 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
-    <definedName name="제조국가">제1작업!$E$5:$E$12</definedName>
+    <definedName name="모집인원">제1작업!$E$5:$E$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,191 +36,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
-  <si>
-    <t>상품코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수입일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조국가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매가(원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전월
-판매량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당월
-판매량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조명 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
+  <si>
+    <t>대학코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전형명</t>
+  </si>
+  <si>
+    <t>전형명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집인원</t>
+  </si>
+  <si>
+    <t>모집인원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년
+경쟁률</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 
+경쟁률</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HA-303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC-261</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LA-702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FA-251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SA-802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EA-102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KB-603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS-103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핀란드 상품 당월 판매량 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독일 상품 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버블팝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나탈리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로즈골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카르텔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈팅스타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노피너피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핀란드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핀란드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베트남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핀란드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베트남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최저 판매가(원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매가(원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매가(원)의 전체 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베트남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핀란드 개수</t>
-  </si>
-  <si>
-    <t>베트남 개수</t>
-  </si>
-  <si>
-    <t>독일 개수</t>
-  </si>
-  <si>
-    <t>전체 개수</t>
-  </si>
-  <si>
-    <t>핀란드 평균</t>
-  </si>
-  <si>
-    <t>베트남 평균</t>
-  </si>
-  <si>
-    <t>독일 평균</t>
-  </si>
-  <si>
-    <t>전체 평균</t>
-  </si>
-  <si>
-    <t>버블팝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중희대</t>
+  </si>
+  <si>
+    <t>중희대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한진대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수일여대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서인대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>세호대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성일대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>건영대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진영대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학업우수자</t>
+  </si>
+  <si>
+    <t>학업우수자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학업우수자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특기자</t>
+  </si>
+  <si>
+    <t>특기자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반전형</t>
+  </si>
+  <si>
+    <t>일반전형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>J-241</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-514</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-248</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-197</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-164</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-318</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y-845</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z-167</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원자가 10,000명 이상인 대학의 수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학업우수자 2022년 경쟁률의 평가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 모집인원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년
+경쟁률</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학업우수자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=10000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>개수 : 대학명</t>
+  </si>
+  <si>
+    <t>201-300</t>
+  </si>
+  <si>
+    <t>301-400</t>
+  </si>
+  <si>
+    <t>401-500</t>
+  </si>
+  <si>
+    <t>501-600</t>
+  </si>
+  <si>
+    <t>평균 : 2022년 경쟁률</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
@@ -226,19 +233,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#0&quot;건&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0&quot;명&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -260,12 +260,11 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="굴림"/>
-      <family val="3"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -282,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -465,7 +464,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -481,7 +480,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -494,10 +493,84 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -534,16 +607,14 @@
       </diagonal>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -552,30 +623,77 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -583,147 +701,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,7 +885,252 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0&quot;명&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -787,7 +1186,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
-              <a:t>핀란드 및 독일상품 판매 현황</a:t>
+              <a:t>학업우수자 및 일반전형 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+              <a:t>2022</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
+              <a:t>년 경쟁률</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
           </a:p>
@@ -835,22 +1242,14 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>판매가(원)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2022년 경쟁률</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -858,11 +1257,123 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8:$C$10,제1작업!$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>중희대</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>한진대</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>서인대</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>세호대</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>성일대</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>진영대</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5:$G$6,제1작업!$G$8:$G$10,제1작업!$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B262-44B1-8B2E-5C4A1619F572}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1678667216"/>
+        <c:axId val="1678665136"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>모집인원</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="3"/>
               <c:layout/>
-              <c:dLblPos val="outEnd"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -874,7 +1385,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F038-4847-A55C-5E6C8DFFAD86}"/>
+                  <c16:uniqueId val="{00000003-B262-44B1-8B2E-5C4A1619F572}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -935,157 +1446,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5:$C$7,제1작업!$C$9,제1작업!$C$11:$C$12)</c:f>
+              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8:$C$10,제1작업!$C$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>버블팝</c:v>
+                  <c:v>중희대</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>나탈리</c:v>
+                  <c:v>한진대</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>로즈골드</c:v>
+                  <c:v>서인대</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>카르텔</c:v>
+                  <c:v>세호대</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>루이스</c:v>
+                  <c:v>성일대</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>노피너피</c:v>
+                  <c:v>진영대</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$F$5:$F$7,제1작업!$F$9,제1작업!$F$11:$F$12)</c:f>
+              <c:f>(제1작업!$E$5:$E$6,제1작업!$E$8:$E$10,제1작업!$E$12)</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>#,##0"명"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>56800</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>419000</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194000</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>345000</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52000</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F038-4847-A55C-5E6C8DFFAD86}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="654277695"/>
-        <c:axId val="654918543"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>당월 판매량</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(제1작업!$C$5:$C$7,제1작업!$C$9,제1작업!$C$11:$C$12)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>버블팝</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>나탈리</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>로즈골드</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>카르텔</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>루이스</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>노피너피</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(제1작업!$H$5:$H$7,제1작업!$H$9,제1작업!$H$11:$H$12)</c:f>
-              <c:numCache>
-                <c:formatCode>#0"건"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>103</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,7 +1500,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F038-4847-A55C-5E6C8DFFAD86}"/>
+              <c16:uniqueId val="{00000000-B262-44B1-8B2E-5C4A1619F572}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1107,11 +1514,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="715100767"/>
-        <c:axId val="715095359"/>
+        <c:axId val="1836804464"/>
+        <c:axId val="1836805712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="654277695"/>
+        <c:axId val="1678667216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,9 +1532,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1154,7 +1560,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654918543"/>
+        <c:crossAx val="1678665136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1162,7 +1568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="654918543"/>
+        <c:axId val="1678665136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,24 +1578,26 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1213,25 +1621,29 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654277695"/>
+        <c:crossAx val="1678667216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="715095359"/>
+        <c:axId val="1836805712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="#0&quot;건&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0&quot;명&quot;" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1255,13 +1667,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="715100767"/>
+        <c:crossAx val="1836804464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="40"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="715100767"/>
+        <c:axId val="1836804464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="715095359"/>
+        <c:crossAx val="1836805712"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1903,7 +2315,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1915,32 +2327,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>375047</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>202406</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="사다리꼴 1"/>
+        <xdr:cNvPr id="2" name="한쪽 모서리가 잘린 사각형 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="160734" y="178594"/>
-          <a:ext cx="3976688" cy="654843"/>
+          <a:off x="133350" y="152401"/>
+          <a:ext cx="4295775" cy="647700"/>
         </a:xfrm>
-        <a:prstGeom prst="trapezoid">
+        <a:prstGeom prst="snip1Rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
         </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1964,14 +2383,24 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>인테리어 조명 판매 현황</a:t>
+            <a:t>2022</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>학년도 대학 수시 경쟁률</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1980,16 +2409,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>416719</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>184547</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>184547</xdr:rowOff>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2013,8 +2442,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4179094" y="184547"/>
-          <a:ext cx="2357437" cy="631031"/>
+          <a:off x="4876801" y="161925"/>
+          <a:ext cx="2057400" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2067,12 +2496,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.65856</cdr:x>
-      <cdr:y>0.1181</cdr:y>
+      <cdr:x>0.66611</cdr:x>
+      <cdr:y>0.11553</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.77685</cdr:x>
-      <cdr:y>0.24647</cdr:y>
+      <cdr:x>0.75252</cdr:x>
+      <cdr:y>0.16431</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2081,13 +2510,13 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6128791" y="718280"/>
-          <a:ext cx="1100840" cy="780736"/>
+          <a:off x="6199057" y="702664"/>
+          <a:ext cx="804160" cy="296681"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -101633"/>
-            <a:gd name="adj2" fmla="val -16745"/>
+            <a:gd name="adj1" fmla="val -91346"/>
+            <a:gd name="adj2" fmla="val 41447"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2122,23 +2551,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>당월</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>최다 판매</a:t>
+            <a:t>최대인원</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR">
             <a:solidFill>
@@ -2150,6 +2563,386 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45058.344606134262" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:H12" sheet="제1작업"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="대학코드" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="대학명" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="전형명" numFmtId="0">
+      <sharedItems count="3">
+        <s v="학업우수자"/>
+        <s v="특기자"/>
+        <s v="일반전형"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="모집인원" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="230" maxValue="590" count="8">
+        <n v="260"/>
+        <n v="230"/>
+        <n v="352"/>
+        <n v="354"/>
+        <n v="468"/>
+        <n v="410"/>
+        <n v="590"/>
+        <n v="300"/>
+      </sharedItems>
+      <fieldGroup base="3">
+        <rangePr autoStart="0" autoEnd="0" startNum="201" endNum="600" groupInterval="100"/>
+        <groupItems count="6">
+          <s v="&lt;201"/>
+          <s v="201-300"/>
+          <s v="301-400"/>
+          <s v="401-500"/>
+          <s v="501-600"/>
+          <s v="&gt;601"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="지원자" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3305" maxValue="10648"/>
+    </cacheField>
+    <cacheField name="2022년_x000a_경쟁률" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.36" maxValue="28.55"/>
+    </cacheField>
+    <cacheField name="2021년 _x000a_경쟁률" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.600000000000001" maxValue="40.57"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <s v="J-241"/>
+    <s v="중희대"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6815"/>
+    <n v="26.21"/>
+    <n v="23.95"/>
+  </r>
+  <r>
+    <s v="H-514"/>
+    <s v="한진대"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3305"/>
+    <n v="14.36"/>
+    <n v="28.51"/>
+  </r>
+  <r>
+    <s v="A-248"/>
+    <s v="수일여대"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="6012"/>
+    <n v="17.079999999999998"/>
+    <n v="16.600000000000001"/>
+  </r>
+  <r>
+    <s v="S-197"/>
+    <s v="서인대"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="10105"/>
+    <n v="28.55"/>
+    <n v="40.57"/>
+  </r>
+  <r>
+    <s v="C-164"/>
+    <s v="세호대"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="10648"/>
+    <n v="22.75"/>
+    <n v="26.37"/>
+  </r>
+  <r>
+    <s v="K-318"/>
+    <s v="성일대"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="7337"/>
+    <n v="17.899999999999999"/>
+    <n v="16.71"/>
+  </r>
+  <r>
+    <s v="Y-845"/>
+    <s v="건영대"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="8915"/>
+    <n v="15.11"/>
+    <n v="22.87"/>
+  </r>
+  <r>
+    <s v="Z-167"/>
+    <s v="진영대"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="7218"/>
+    <n v="24.06"/>
+    <n v="25"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="모집인원" colHeaderCaption="전형명">
+  <location ref="B2:H9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="177" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="개수 : 대학명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 2022년 경쟁률" fld="5" subtotal="average" baseField="3" baseItem="1"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="10">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E23" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="16">
+  <autoFilter ref="B18:E23"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="대학명" dataDxfId="15"/>
+    <tableColumn id="2" name="전형명" dataDxfId="14"/>
+    <tableColumn id="3" name="지원자" dataDxfId="13" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="2022년_x000a_경쟁률" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2417,345 +3210,345 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="F4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="G4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="H4" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="I4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16">
-        <v>42504</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="24">
-        <v>56800</v>
-      </c>
-      <c r="G5" s="24">
-        <v>64</v>
-      </c>
-      <c r="H5" s="41">
-        <v>95</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f>CHOOSE(RIGHT(B5,1),"방","거실","포인트")</f>
-        <v>포인트</v>
-      </c>
-      <c r="J5" s="6">
-        <f>IF(_xlfn.RANK.EQ(H5,$H$5:$H$12,0)=1,_xlfn.RANK.EQ(H5,$H$5:$H$12,0),IF(_xlfn.RANK.EQ(H5,$H$5:$H$12,0)=2,_xlfn.RANK.EQ(H5,$H$5:$H$12,0),IF(_xlfn.RANK.EQ(H5,$H$5:$H$12,0)=3,_xlfn.RANK.EQ(H5,$H$5:$H$12,0),"")))</f>
-        <v>3</v>
+      <c r="C5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="30">
+        <v>260</v>
+      </c>
+      <c r="F5" s="30">
+        <v>6815</v>
+      </c>
+      <c r="G5" s="27">
+        <v>26.21</v>
+      </c>
+      <c r="H5" s="27">
+        <v>23.95</v>
+      </c>
+      <c r="I5" s="18" t="str">
+        <f>_xlfn.RANK.EQ(G5,$G$5:$G$12,0)&amp;"위"</f>
+        <v>2위</v>
+      </c>
+      <c r="J5" s="19" t="str">
+        <f>IF(AND(G5&gt;=20,H5&gt;=20),"★★","")</f>
+        <v>★★</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
-        <v>42870</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="25">
-        <v>419000</v>
-      </c>
-      <c r="G6" s="25">
-        <v>25</v>
-      </c>
-      <c r="H6" s="42">
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" ref="I6:I12" si="0">CHOOSE(RIGHT(B6,1),"방","거실","포인트")</f>
-        <v>방</v>
-      </c>
-      <c r="J6" s="8" t="str">
-        <f t="shared" ref="J6:J12" si="1">IF(_xlfn.RANK.EQ(H6,$H$5:$H$12,0)=1,_xlfn.RANK.EQ(H6,$H$5:$H$12,0),IF(_xlfn.RANK.EQ(H6,$H$5:$H$12,0)=2,_xlfn.RANK.EQ(H6,$H$5:$H$12,0),IF(_xlfn.RANK.EQ(H6,$H$5:$H$12,0)=3,_xlfn.RANK.EQ(H6,$H$5:$H$12,0),"")))</f>
+      <c r="E6" s="31">
+        <v>230</v>
+      </c>
+      <c r="F6" s="31">
+        <v>3305</v>
+      </c>
+      <c r="G6" s="28">
+        <v>14.36</v>
+      </c>
+      <c r="H6" s="28">
+        <v>28.51</v>
+      </c>
+      <c r="I6" s="12" t="str">
+        <f t="shared" ref="I6:I12" si="0">_xlfn.RANK.EQ(G6,$G$5:$G$12,0)&amp;"위"</f>
+        <v>8위</v>
+      </c>
+      <c r="J6" s="21" t="str">
+        <f t="shared" ref="J6:J12" si="1">IF(AND(G6&gt;=20,H6&gt;=20),"★★","")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3">
-        <v>42362</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="25">
-        <v>194000</v>
-      </c>
-      <c r="G7" s="25">
-        <v>87</v>
-      </c>
-      <c r="H7" s="42">
-        <v>61</v>
-      </c>
-      <c r="I7" s="2" t="str">
+      <c r="C7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="31">
+        <v>352</v>
+      </c>
+      <c r="F7" s="31">
+        <v>6012</v>
+      </c>
+      <c r="G7" s="28">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="H7" s="28">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>거실</v>
-      </c>
-      <c r="J7" s="8" t="str">
+        <v>6위</v>
+      </c>
+      <c r="J7" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
-        <v>42523</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="25">
-        <v>43000</v>
-      </c>
-      <c r="G8" s="25">
-        <v>33</v>
-      </c>
-      <c r="H8" s="42">
+      <c r="C8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="E8" s="31">
+        <v>354</v>
+      </c>
+      <c r="F8" s="31">
+        <v>10105</v>
+      </c>
+      <c r="G8" s="28">
+        <v>28.55</v>
+      </c>
+      <c r="H8" s="28">
+        <v>40.57</v>
+      </c>
+      <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>방</v>
-      </c>
-      <c r="J8" s="8" t="str">
+        <v>1위</v>
+      </c>
+      <c r="J8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>★★</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="31">
+        <v>468</v>
+      </c>
+      <c r="F9" s="31">
+        <v>10648</v>
+      </c>
+      <c r="G9" s="28">
+        <v>22.75</v>
+      </c>
+      <c r="H9" s="28">
+        <v>26.37</v>
+      </c>
+      <c r="I9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>4위</v>
+      </c>
+      <c r="J9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>★★</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="31">
+        <v>410</v>
+      </c>
+      <c r="F10" s="31">
+        <v>7337</v>
+      </c>
+      <c r="G10" s="28">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H10" s="28">
+        <v>16.71</v>
+      </c>
+      <c r="I10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>5위</v>
+      </c>
+      <c r="J10" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3">
-        <v>42671</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="25">
-        <v>345000</v>
-      </c>
-      <c r="G9" s="25">
-        <v>95</v>
-      </c>
-      <c r="H9" s="42">
-        <v>150</v>
-      </c>
-      <c r="I9" s="2" t="str">
+    <row r="11" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="31">
+        <v>590</v>
+      </c>
+      <c r="F11" s="31">
+        <v>8915</v>
+      </c>
+      <c r="G11" s="28">
+        <v>15.11</v>
+      </c>
+      <c r="H11" s="28">
+        <v>22.87</v>
+      </c>
+      <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>거실</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3">
-        <v>42994</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="25">
-        <v>36500</v>
-      </c>
-      <c r="G10" s="25">
-        <v>55</v>
-      </c>
-      <c r="H10" s="42">
-        <v>61</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>거실</v>
-      </c>
-      <c r="J10" s="8" t="str">
+        <v>7위</v>
+      </c>
+      <c r="J11" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="12" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="32">
+        <v>300</v>
+      </c>
+      <c r="F12" s="32">
+        <v>7218</v>
+      </c>
+      <c r="G12" s="29">
+        <v>24.06</v>
+      </c>
+      <c r="H12" s="29">
         <v>25</v>
       </c>
-      <c r="D11" s="3">
-        <v>42809</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="25">
-        <v>52000</v>
-      </c>
-      <c r="G11" s="25">
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3위</v>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>★★</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2">
+        <f>COUNTIF(F5:F12,"&gt;=10000")</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="23">
+        <f>MAX(모집인원)</f>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4">
+        <f>ROUNDUP(DAVERAGE(B4:H12,6,D4:D5),-1)</f>
+        <v>20</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="42">
-        <v>35</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>포인트</v>
-      </c>
-      <c r="J11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="18">
-        <v>42309</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="26">
-        <v>50000</v>
-      </c>
-      <c r="G12" s="26">
-        <v>86</v>
-      </c>
-      <c r="H12" s="43">
-        <v>103</v>
-      </c>
-      <c r="I12" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>포인트</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15">
-        <f>DAVERAGE(B4:H12,7,E4:E5)</f>
-        <v>102</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="45">
-        <f>MIN(F5:F12)</f>
-        <v>36500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11" t="str">
-        <f>COUNTIF(제조국가,E6)&amp;"개"</f>
-        <v>3개</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="12">
-        <f>VLOOKUP(H14,C5:H12,4,0)</f>
-        <v>56800</v>
+      <c r="H14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="22">
+        <f>VLOOKUP(H14,C5:H12,5,0)</f>
+        <v>26.21</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2766,10 +3559,10 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:F14"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$H5&gt;=100</formula>
+      <formula>$E5&gt;=400</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2785,687 +3578,631 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="G2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="30">
+        <v>260</v>
+      </c>
+      <c r="F3" s="30">
+        <v>6815</v>
+      </c>
+      <c r="G3" s="27">
+        <v>26.21</v>
+      </c>
+      <c r="H3" s="27">
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="31">
+        <v>230</v>
+      </c>
+      <c r="F4" s="31">
+        <v>3305</v>
+      </c>
+      <c r="G4" s="28">
+        <v>14.36</v>
+      </c>
+      <c r="H4" s="28">
+        <v>28.51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="31">
+        <v>352</v>
+      </c>
+      <c r="F5" s="31">
+        <v>6012</v>
+      </c>
+      <c r="G5" s="28">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="H5" s="28">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="31">
+        <v>354</v>
+      </c>
+      <c r="F6" s="31">
+        <v>10105</v>
+      </c>
+      <c r="G6" s="28">
+        <v>28.55</v>
+      </c>
+      <c r="H6" s="28">
+        <v>40.57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="31">
+        <v>468</v>
+      </c>
+      <c r="F7" s="31">
+        <v>10648</v>
+      </c>
+      <c r="G7" s="28">
+        <v>22.75</v>
+      </c>
+      <c r="H7" s="28">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="31">
+        <v>410</v>
+      </c>
+      <c r="F8" s="31">
+        <v>7337</v>
+      </c>
+      <c r="G8" s="28">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H8" s="28">
+        <v>16.71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="31">
+        <v>590</v>
+      </c>
+      <c r="F9" s="31">
+        <v>8915</v>
+      </c>
+      <c r="G9" s="28">
+        <v>15.11</v>
+      </c>
+      <c r="H9" s="28">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="16">
-        <v>42504</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="24">
-        <v>60500</v>
-      </c>
-      <c r="G3" s="24">
-        <v>64</v>
-      </c>
-      <c r="H3" s="33">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>42870</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="25">
-        <v>419000</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="32">
+        <v>300</v>
+      </c>
+      <c r="F10" s="32">
+        <v>7218</v>
+      </c>
+      <c r="G10" s="29">
+        <v>24.06</v>
+      </c>
+      <c r="H10" s="29">
         <v>25</v>
       </c>
-      <c r="H4" s="34">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>42362</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="25">
-        <v>194000</v>
-      </c>
-      <c r="G5" s="25">
-        <v>87</v>
-      </c>
-      <c r="H5" s="34">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3">
-        <v>42523</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="25">
-        <v>43000</v>
-      </c>
-      <c r="G6" s="25">
-        <v>33</v>
-      </c>
-      <c r="H6" s="34">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3">
-        <v>42671</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="25">
-        <v>345000</v>
-      </c>
-      <c r="G7" s="25">
-        <v>95</v>
-      </c>
-      <c r="H7" s="34">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3">
-        <v>42994</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="25">
-        <v>36500</v>
-      </c>
-      <c r="G8" s="25">
-        <v>55</v>
-      </c>
-      <c r="H8" s="34">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3">
-        <v>42809</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="25">
-        <v>52000</v>
-      </c>
-      <c r="G9" s="25">
-        <v>38</v>
-      </c>
-      <c r="H9" s="34">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="18">
-        <v>42309</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="26">
-        <v>50000</v>
-      </c>
-      <c r="G10" s="26">
-        <v>86</v>
-      </c>
-      <c r="H10" s="35">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31">
-        <f>AVERAGE(F3:F10)</f>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:8" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="32" t="s">
+      <c r="D18" s="44" t="s">
         <v>6</v>
       </c>
+      <c r="E18" s="45" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="25">
-        <v>419000</v>
-      </c>
-      <c r="E19" s="34">
+      <c r="B19" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="36">
+        <v>6815</v>
+      </c>
+      <c r="E19" s="41">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="25">
-        <v>43000</v>
-      </c>
-      <c r="E20" s="34">
+      <c r="D20" s="38">
+        <v>3305</v>
+      </c>
+      <c r="E20" s="42">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="25">
-        <v>36500</v>
-      </c>
-      <c r="E21" s="34">
-        <v>61</v>
+      <c r="D21" s="38">
+        <v>10105</v>
+      </c>
+      <c r="E21" s="42">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="38">
+        <v>10648</v>
+      </c>
+      <c r="E22" s="42">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="48">
+        <v>7337</v>
+      </c>
+      <c r="E23" s="49">
+        <v>17.899999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B11:G11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>$E3&gt;=400</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H30"/>
+  <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20" t="s">
+    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="51"/>
+      <c r="C3" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="56">
+        <v>2</v>
+      </c>
+      <c r="D5" s="56">
+        <v>20.285</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="56">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="H5" s="56">
+        <v>24.06</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="56">
+        <v>1</v>
+      </c>
+      <c r="F6" s="56">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="G6" s="56">
+        <v>1</v>
+      </c>
+      <c r="H6" s="56">
+        <v>28.55</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="56">
+        <v>1</v>
+      </c>
+      <c r="D7" s="56">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="56">
+        <v>1</v>
+      </c>
+      <c r="H7" s="56">
+        <v>22.75</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="56">
+        <v>1</v>
+      </c>
+      <c r="F8" s="56">
+        <v>15.11</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="56">
+        <v>3</v>
+      </c>
+      <c r="D9" s="56">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="E9" s="56">
         <v>2</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F9" s="56">
+        <v>16.094999999999999</v>
+      </c>
+      <c r="G9" s="56">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="16">
-        <v>42504</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="24">
-        <v>56800</v>
-      </c>
-      <c r="G3" s="24">
-        <v>64</v>
-      </c>
-      <c r="H3" s="41">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3">
-        <v>42362</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="25">
-        <v>194000</v>
-      </c>
-      <c r="G4" s="25">
-        <v>87</v>
-      </c>
-      <c r="H4" s="42">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3">
-        <v>42671</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="25">
-        <v>345000</v>
-      </c>
-      <c r="G5" s="25">
-        <v>95</v>
-      </c>
-      <c r="H5" s="42">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="42">
-        <f>SUBTOTAL(1,H3:H5)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="2">
-        <f>SUBTOTAL(3,C3:C5)</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
-        <v>42523</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="25">
-        <v>43000</v>
-      </c>
-      <c r="G8" s="25">
-        <v>33</v>
-      </c>
-      <c r="H8" s="42">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3">
-        <v>42994</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="25">
-        <v>36500</v>
-      </c>
-      <c r="G9" s="25">
-        <v>55</v>
-      </c>
-      <c r="H9" s="42">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="42">
-        <f>SUBTOTAL(1,H8:H9)</f>
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="2">
-        <f>SUBTOTAL(3,C8:C9)</f>
-        <v>2</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3">
-        <v>42870</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="25">
-        <v>419000</v>
-      </c>
-      <c r="G12" s="25">
-        <v>25</v>
-      </c>
-      <c r="H12" s="42">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3">
-        <v>42809</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="25">
-        <v>52000</v>
-      </c>
-      <c r="G13" s="25">
-        <v>38</v>
-      </c>
-      <c r="H13" s="42">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="18">
-        <v>42309</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="26">
-        <v>50000</v>
-      </c>
-      <c r="G14" s="26">
-        <v>86</v>
-      </c>
-      <c r="H14" s="43">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="44">
-        <f>SUBTOTAL(1,H12:H14)</f>
-        <v>53.333333333333336</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37">
-        <f>SUBTOTAL(3,C12:C14)</f>
-        <v>3</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="44"/>
-    </row>
-    <row r="17" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="44">
-        <f>SUBTOTAL(1,H3:H14)</f>
-        <v>69.125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37">
-        <f>SUBTOTAL(3,C3:C14)</f>
-        <v>8</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="44"/>
-    </row>
-    <row r="19" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="H9" s="56">
+        <v>25.12</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
   </sheetData>
-  <sortState ref="B3:H10">
-    <sortCondition descending="1" ref="E2"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>